--- a/data/trans_orig/P36BPD13_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD13_2023-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>505979</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>487602</v>
+        <v>490543</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>520884</v>
+        <v>521061</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8792591023566513</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8473234965612835</v>
+        <v>0.8524354023219702</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9051591925683738</v>
+        <v>0.9054678271208144</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1267</v>
@@ -762,19 +762,19 @@
         <v>721891</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>705837</v>
+        <v>707449</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>736113</v>
+        <v>734732</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8842023343791354</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8645391073809898</v>
+        <v>0.8665128006914847</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9016215241002034</v>
+        <v>0.8999303190613538</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1879</v>
@@ -783,19 +783,19 @@
         <v>1227870</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1204933</v>
+        <v>1205099</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1245373</v>
+        <v>1248058</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.8821586168186033</v>
+        <v>0.8821586168186032</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8656790647761804</v>
+        <v>0.8657984838326939</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8947329320240187</v>
+        <v>0.8966625599563539</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>69482</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>54577</v>
+        <v>54400</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>87859</v>
+        <v>84918</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1207408976433487</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.09484080743162605</v>
+        <v>0.09453217287918569</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1526765034387164</v>
+        <v>0.1475645976780297</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>151</v>
@@ -833,19 +833,19 @@
         <v>94541</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>80319</v>
+        <v>81700</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>110595</v>
+        <v>108983</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1157976656208646</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.09837847589979661</v>
+        <v>0.100069680938646</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.13546089261901</v>
+        <v>0.1334871993085153</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>226</v>
@@ -854,19 +854,19 @@
         <v>164023</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>146520</v>
+        <v>143835</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>186960</v>
+        <v>186794</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1178413831813968</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1052670679759813</v>
+        <v>0.103337440043646</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1343209352238196</v>
+        <v>0.1342015161673062</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>1847203</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1805132</v>
+        <v>1806483</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1889161</v>
+        <v>1887407</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8328419372168372</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8138731929933146</v>
+        <v>0.814482295412751</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.851759284589451</v>
+        <v>0.8509681923324542</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2556</v>
@@ -979,19 +979,19 @@
         <v>1875804</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1845308</v>
+        <v>1844910</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>1902908</v>
+        <v>1902596</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.8688035741774076</v>
+        <v>0.8688035741774074</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8546788509802887</v>
+        <v>0.8544946922541112</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8813571313753098</v>
+        <v>0.8812127396023846</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>4236</v>
@@ -1000,19 +1000,19 @@
         <v>3723007</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3669505</v>
+        <v>3672213</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>3771797</v>
+        <v>3772956</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.8505808530597465</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8383574739170594</v>
+        <v>0.8389761130566854</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8617278046253624</v>
+        <v>0.8619924481150909</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>370749</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>328791</v>
+        <v>330545</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>412820</v>
+        <v>411469</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1671580627831628</v>
+        <v>0.1671580627831627</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1482407154105488</v>
+        <v>0.1490318076675457</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1861268070066854</v>
+        <v>0.185517704587249</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>350</v>
@@ -1050,19 +1050,19 @@
         <v>283262</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>256158</v>
+        <v>256470</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>313758</v>
+        <v>314156</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.1311964258225925</v>
+        <v>0.1311964258225924</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1186428686246898</v>
+        <v>0.1187872603976154</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1453211490197112</v>
+        <v>0.1455053077458888</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>650</v>
@@ -1071,19 +1071,19 @@
         <v>654010</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>605220</v>
+        <v>604061</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>707512</v>
+        <v>704804</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1494191469402535</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1382721953746373</v>
+        <v>0.1380075518849091</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1616425260829404</v>
+        <v>0.1610238869433147</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>606763</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>583784</v>
+        <v>585654</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>625387</v>
+        <v>626378</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8583671165841984</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8258590401869284</v>
+        <v>0.8285038376851627</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.884712897551631</v>
+        <v>0.8861146423676284</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>896</v>
@@ -1196,19 +1196,19 @@
         <v>648475</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>632898</v>
+        <v>632176</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>663179</v>
+        <v>662057</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8968409772271577</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8752971381758305</v>
+        <v>0.8742994081782913</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9171760290766019</v>
+        <v>0.9156244119368695</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1481</v>
@@ -1217,19 +1217,19 @@
         <v>1255240</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1229351</v>
+        <v>1227236</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1281214</v>
+        <v>1281233</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.8778217830847009</v>
+        <v>0.877821783084701</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8597173263936663</v>
+        <v>0.858238236393411</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8959863822702019</v>
+        <v>0.895999381449179</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>100118</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>81494</v>
+        <v>80503</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>123097</v>
+        <v>121227</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1416328834158017</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.115287102448369</v>
+        <v>0.1138853576323717</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1741409598130718</v>
+        <v>0.1714961623148371</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>95</v>
@@ -1267,19 +1267,19 @@
         <v>74591</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>59887</v>
+        <v>61009</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>90168</v>
+        <v>90890</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1031590227728423</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.08282397092339808</v>
+        <v>0.08437558806313041</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1247028618241693</v>
+        <v>0.1257005918217087</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>185</v>
@@ -1288,19 +1288,19 @@
         <v>174708</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>148734</v>
+        <v>148715</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>200597</v>
+        <v>202712</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.122178216915299</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1040136177297981</v>
+        <v>0.1040006185508209</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1402826736063337</v>
+        <v>0.141761763606589</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>2959946</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2911815</v>
+        <v>2909707</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>3005473</v>
+        <v>3004286</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.8456278721328014</v>
+        <v>0.8456278721328013</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8318773706090355</v>
+        <v>0.8312749826607431</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8586344657186091</v>
+        <v>0.8582953229083805</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4719</v>
@@ -1413,19 +1413,19 @@
         <v>3246171</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3208784</v>
+        <v>3209319</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>3282970</v>
+        <v>3283001</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.8776840325172764</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.8675757088552043</v>
+        <v>0.8677204133336882</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8876337530974</v>
+        <v>0.8876421580707304</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>7596</v>
@@ -1434,19 +1434,19 @@
         <v>6206117</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>6143777</v>
+        <v>6144296</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>6266860</v>
+        <v>6262126</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.8620973974285286</v>
+        <v>0.8620973974285289</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.8534377860337106</v>
+        <v>0.853509866959814</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.8705353662277083</v>
+        <v>0.8698777028862147</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>540348</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>494821</v>
+        <v>496008</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>588479</v>
+        <v>590587</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1543721278671986</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.141365534281391</v>
+        <v>0.1417046770916194</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1681226293909644</v>
+        <v>0.1687250173392568</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>596</v>
@@ -1484,19 +1484,19 @@
         <v>452393</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>415594</v>
+        <v>415563</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>489780</v>
+        <v>489245</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1223159674827236</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1123662469025999</v>
+        <v>0.1123578419292692</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1324242911447957</v>
+        <v>0.1322795866663114</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1061</v>
@@ -1505,19 +1505,19 @@
         <v>992741</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>931998</v>
+        <v>936732</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1055081</v>
+        <v>1054562</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1379026025714713</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1294646337722916</v>
+        <v>0.1301222971137853</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1465622139662898</v>
+        <v>0.1464901330401859</v>
       </c>
     </row>
     <row r="15">
